--- a/questions_en.xlsx
+++ b/questions_en.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I78"/>
+  <dimension ref="A1:I79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3556,6 +3556,45 @@
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
     </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>New question?</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>BDD</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Test de positionnement</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Answer A</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Answer B</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Answer C</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
